--- a/05 - Literature/Data/ADC test - wind vane/No filter, no amplifier.xlsx
+++ b/05 - Literature/Data/ADC test - wind vane/No filter, no amplifier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f1ecc3610ff35ee/Senior Project ^0 Bachelor Thesis/Personal works/VGU-WirelessMeteorologyStation/05 - Literature/Data/ADC test - wind vane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{0D679BA0-1257-45A2-A380-C5C8E68A35CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{736115EC-EA8A-4147-867D-5D43FDA38987}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{0D679BA0-1257-45A2-A380-C5C8E68A35CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{513009AB-677F-4F31-ACA9-2ADDE16499EC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No filter, no op-amp" sheetId="1" r:id="rId1"/>
@@ -598,13 +598,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -674,6 +673,14 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -976,11 +983,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1070,99 +1081,99 @@
       <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>3639</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>2.98</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>31983.3</v>
       </c>
       <c r="E3" s="4">
         <v>22.5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>2708</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>6492.39</v>
       </c>
       <c r="I3" s="4">
         <v>45</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <v>2883</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>7989.47</v>
       </c>
       <c r="M3" s="4">
         <v>67.5</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3">
         <v>902</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3">
         <v>0.71</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>916.38</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>337.5</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>3659</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>2.92</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>26334.880000000001</v>
       </c>
       <c r="E4" s="4">
         <v>22.5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>2711</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>2.17</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>6442.97</v>
       </c>
       <c r="I4" s="4">
         <v>45</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4">
         <v>2881</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
         <v>2.31</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>7849.75</v>
       </c>
       <c r="M4" s="4">
         <v>67.5</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4">
         <v>901</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4">
         <v>0.72</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>932.23</v>
       </c>
     </row>
@@ -1170,99 +1181,99 @@
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>3641</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>2.94</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>27694.27</v>
       </c>
       <c r="E5" s="4">
         <v>22.5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>2711</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>2.17</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>6464.09</v>
       </c>
       <c r="I5" s="4">
         <v>45</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <v>2897</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>2.31</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>7831.38</v>
       </c>
       <c r="M5" s="4">
         <v>67.5</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5">
         <v>905</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5">
         <v>0.72</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>930.9</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>337.5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>3669</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>2.92</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>26465.43</v>
       </c>
       <c r="E6" s="4">
         <v>22.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>2716</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>2.17</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>6464.09</v>
       </c>
       <c r="I6" s="4">
         <v>45</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>2895</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>7980.05</v>
       </c>
       <c r="M6" s="4">
         <v>67.5</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6">
         <v>905</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6">
         <v>0.73</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>936.21</v>
       </c>
     </row>
@@ -1270,49 +1281,49 @@
       <c r="A7" s="4">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>3679</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>2.94</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>28421.83</v>
       </c>
       <c r="E7" s="4">
         <v>22.5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>2707</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>6499.49</v>
       </c>
       <c r="I7" s="4">
         <v>45</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>2887</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>7961.25</v>
       </c>
       <c r="M7" s="4">
         <v>67.5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7">
         <v>896</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7">
         <v>0.73</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>936.21</v>
       </c>
     </row>
@@ -1320,49 +1331,49 @@
       <c r="A8" s="4">
         <v>0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>3660</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>2.95</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>29184.38</v>
       </c>
       <c r="E8" s="4">
         <v>22.5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>2740</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>2.17</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>6435.95</v>
       </c>
       <c r="I8" s="4">
         <v>45</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>2900</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>7886.67</v>
       </c>
       <c r="M8" s="4">
         <v>67.5</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8">
         <v>899</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8">
         <v>0.72</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>924.29</v>
       </c>
     </row>
@@ -1370,49 +1381,49 @@
       <c r="A9" s="4">
         <v>0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>3661</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>2.94</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>27765.54</v>
       </c>
       <c r="E9" s="4">
         <v>22.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>2724</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>6673.06</v>
       </c>
       <c r="I9" s="4">
         <v>45</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>2895</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>2.33</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>8008.37</v>
       </c>
       <c r="M9" s="4">
         <v>67.5</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9">
         <v>901</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9">
         <v>0.72</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>928.25</v>
       </c>
     </row>
@@ -1420,49 +1431,49 @@
       <c r="A10" s="4">
         <v>0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>3665</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>2.94</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>27837.1</v>
       </c>
       <c r="E10" s="4">
         <v>22.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>2708</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>2.19</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>6556.67</v>
       </c>
       <c r="I10" s="4">
         <v>45</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>2883</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>7961.25</v>
       </c>
       <c r="M10" s="4">
         <v>67.5</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10">
         <v>902</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10">
         <v>0.72</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>930.9</v>
       </c>
     </row>
@@ -1470,49 +1481,49 @@
       <c r="A11" s="4">
         <v>0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>3665</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>2.94</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>28126.76</v>
       </c>
       <c r="E11" s="4">
         <v>22.5</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>2713</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>2.17</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>6442.97</v>
       </c>
       <c r="I11" s="4">
         <v>45</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>2895</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>2.31</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>7849.75</v>
       </c>
       <c r="M11" s="4">
         <v>67.5</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11">
         <v>915</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11">
         <v>0.72</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>932.23</v>
       </c>
     </row>
@@ -1520,10 +1531,10 @@
       <c r="A12" s="4">
         <v>0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>3666</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>2.94</v>
       </c>
       <c r="D12">
@@ -1532,37 +1543,37 @@
       <c r="E12" s="4">
         <v>22.5</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>2711</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>6478.22</v>
       </c>
       <c r="I12" s="4">
         <v>45</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>2898</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>7961.25</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>90</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>887</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>0.73</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>949.53</v>
       </c>
     </row>
@@ -1570,49 +1581,49 @@
       <c r="A13" s="4">
         <v>0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>3669</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>2.94</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>28200.02</v>
       </c>
       <c r="E13" s="4">
         <v>22.5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>2719</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>2.17</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>6464.09</v>
       </c>
       <c r="I13" s="4">
         <v>45</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>2901</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>7989.47</v>
       </c>
       <c r="M13" s="4">
         <v>67.5</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13">
         <v>896</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13">
         <v>0.71</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>912.44</v>
       </c>
     </row>
@@ -1620,49 +1631,49 @@
       <c r="A14" s="4">
         <v>0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>3671</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>2.94</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>28421.83</v>
       </c>
       <c r="E14" s="4">
         <v>22.5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>2716</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>6520.86</v>
       </c>
       <c r="I14" s="4">
         <v>45</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>2903</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <v>2.33</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>8017.84</v>
       </c>
       <c r="M14" s="4">
         <v>67.5</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14">
         <v>890</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14">
         <v>0.72</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>924.29</v>
       </c>
     </row>
@@ -1670,99 +1681,99 @@
       <c r="A15" s="4">
         <v>0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>3651</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>2.94</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>28571.47</v>
       </c>
       <c r="E15" s="4">
         <v>22.5</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>2719</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>6499.49</v>
       </c>
       <c r="I15" s="4">
         <v>45</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>2889</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>2.33</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>8036.83</v>
       </c>
       <c r="M15" s="4">
         <v>67.5</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15">
         <v>901</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15">
         <v>0.71</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>916.38</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>337.5</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>3675</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>2.93</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>27135.83</v>
       </c>
       <c r="E16" s="4">
         <v>22.5</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>2709</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>6520.86</v>
       </c>
       <c r="I16" s="4">
         <v>45</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16">
         <v>2907</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>7905.22</v>
       </c>
       <c r="M16" s="4">
         <v>67.5</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16">
         <v>892</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16">
         <v>0.72</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>930.9</v>
       </c>
     </row>
@@ -1770,49 +1781,49 @@
       <c r="A17" s="4">
         <v>0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>3661</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>2.95</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>28875</v>
       </c>
       <c r="E17" s="4">
         <v>22.5</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>2713</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17">
         <v>2.17</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>6450</v>
       </c>
       <c r="I17" s="4">
         <v>45</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17">
         <v>2884</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
         <v>2.33</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>8075</v>
       </c>
       <c r="M17" s="4">
         <v>67.5</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17">
         <v>899</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17">
         <v>0.72</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>919.01</v>
       </c>
     </row>
@@ -1820,249 +1831,249 @@
       <c r="A18" s="4">
         <v>0</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>3653</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>2.94</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>27837.1</v>
       </c>
       <c r="E18" s="4">
         <v>22.5</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>2727</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>6478.22</v>
       </c>
       <c r="I18" s="4">
         <v>45</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18">
         <v>2892</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18">
         <v>2.31</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>7858.96</v>
       </c>
       <c r="M18" s="4">
         <v>67.5</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18">
         <v>894</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18">
         <v>0.72</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>928.25</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>337.5</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>3652</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>2.93</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>27273.54</v>
       </c>
       <c r="E19" s="4">
         <v>22.5</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>2713</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19">
         <v>2.19</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>6578.29</v>
       </c>
       <c r="I19" s="4">
         <v>45</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19">
         <v>2894</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>7933.17</v>
       </c>
       <c r="M19" s="4">
         <v>67.5</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19">
         <v>906</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19">
         <v>0.72</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>921.65</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>337.5</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>3655</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>2.93</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>27204.52</v>
       </c>
       <c r="E20" s="4">
         <v>22.5</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>2722</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>6478.22</v>
       </c>
       <c r="I20" s="4">
         <v>45</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20">
         <v>2901</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>7951.88</v>
       </c>
       <c r="M20" s="4">
         <v>67.5</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20">
         <v>900</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20">
         <v>0.73</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <v>937.54</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>337.5</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>3683</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>2.93</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>27412.5</v>
       </c>
       <c r="E21" s="4">
         <v>22.5</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>2727</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>6542.32</v>
       </c>
       <c r="I21" s="4">
         <v>45</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21">
         <v>2903</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21">
         <v>2.33</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>8017.84</v>
       </c>
       <c r="M21" s="4">
         <v>67.5</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21">
         <v>900</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21">
         <v>0.72</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>929.58</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>0</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>3667</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>2.95</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>29499.77</v>
       </c>
       <c r="E22" s="4">
         <v>22.5</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>2711</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22">
         <v>2.19</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>6578.29</v>
       </c>
       <c r="I22" s="4">
         <v>45</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22">
         <v>2871</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22">
         <v>2.33</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>8036.83</v>
       </c>
       <c r="M22" s="4">
         <v>67.5</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22">
         <v>887</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22">
         <v>0.72</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>929.58</v>
       </c>
     </row>
@@ -2104,49 +2115,49 @@
       <c r="A24" s="4">
         <v>90</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>979</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>0.79</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>1047.97</v>
       </c>
       <c r="E24" s="4">
         <v>112.5</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>734</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24">
         <v>0.59</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>726.67</v>
       </c>
       <c r="I24" s="4">
         <v>135</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24">
         <v>1642</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24">
         <v>1.32</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>2211.2199999999998</v>
       </c>
       <c r="M24" s="4">
         <v>157.5</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24">
         <v>1247</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24">
         <v>1.01</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>1458.27</v>
       </c>
     </row>
@@ -2154,49 +2165,49 @@
       <c r="A25" s="4">
         <v>90</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>979</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>0.79</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>1036.81</v>
       </c>
       <c r="E25" s="4">
         <v>112.5</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>721</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25">
         <v>0.59</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>720.68</v>
       </c>
       <c r="I25" s="4">
         <v>135</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25">
         <v>1665</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25">
         <v>1.32</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>2208.9699999999998</v>
       </c>
       <c r="M25" s="4">
         <v>157.5</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25">
         <v>1253</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25">
         <v>1</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <v>1444.91</v>
       </c>
     </row>
@@ -2204,49 +2215,49 @@
       <c r="A26" s="4">
         <v>90</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>981</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>0.79</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>1036.81</v>
       </c>
       <c r="E26" s="4">
         <v>112.5</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <v>734</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>705.19</v>
       </c>
       <c r="I26" s="4">
         <v>135</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26">
         <v>1654</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26">
         <v>1.34</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>2261.11</v>
       </c>
       <c r="M26" s="4">
         <v>157.5</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26">
         <v>1236</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26">
         <v>1.01</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
         <v>1454.93</v>
       </c>
     </row>
@@ -2254,49 +2265,49 @@
       <c r="A27" s="4">
         <v>90</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>996</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>0.79</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>1039.5999999999999</v>
       </c>
       <c r="E27" s="4">
         <v>112.5</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>747</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27">
         <v>0.59</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>720.68</v>
       </c>
       <c r="I27" s="4">
         <v>135</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27">
         <v>1669</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27">
         <v>1.33</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>2236.0500000000002</v>
       </c>
       <c r="M27" s="4">
         <v>157.5</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27">
         <v>1256</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27">
         <v>0.99</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="5">
         <v>1426.65</v>
       </c>
     </row>
@@ -2304,49 +2315,49 @@
       <c r="A28" s="4">
         <v>90</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>978</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28">
         <v>0.8</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28">
         <v>1060.5999999999999</v>
       </c>
       <c r="E28" s="4">
         <v>112.5</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28">
         <v>732</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28">
         <v>0.6</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>736.29</v>
       </c>
       <c r="I28" s="4">
         <v>135</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28">
         <v>1649</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28">
         <v>1.34</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>2270.2800000000002</v>
       </c>
       <c r="M28" s="4">
         <v>157.5</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28">
         <v>1241</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28">
         <v>1.01</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <v>1459.95</v>
       </c>
     </row>
@@ -2354,49 +2365,49 @@
       <c r="A29" s="4">
         <v>90</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>978</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>0.78</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>1035.42</v>
       </c>
       <c r="E29" s="4">
         <v>112.5</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>737</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29">
         <v>0.59</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>718.29</v>
       </c>
       <c r="I29" s="4">
         <v>135</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29">
         <v>1645</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29">
         <v>1.32</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>2224.73</v>
       </c>
       <c r="M29" s="4">
         <v>157.5</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29">
         <v>1243</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29">
         <v>1</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="5">
         <v>1434.93</v>
       </c>
     </row>
@@ -2404,49 +2415,49 @@
       <c r="A30" s="4">
         <v>90</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>993</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>0.78</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30">
         <v>1035.42</v>
       </c>
       <c r="E30" s="4">
         <v>112.5</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30">
         <v>743</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30">
         <v>0.59</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>724.27</v>
       </c>
       <c r="I30" s="4">
         <v>135</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30">
         <v>1661</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30">
         <v>1.32</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>2215.71</v>
       </c>
       <c r="M30" s="4">
         <v>157.5</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30">
         <v>1262</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30">
         <v>1</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="5">
         <v>1438.25</v>
       </c>
     </row>
@@ -2454,49 +2465,49 @@
       <c r="A31" s="4">
         <v>90</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>972</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>0.8</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31">
         <v>1056.3800000000001</v>
       </c>
       <c r="E31" s="4">
         <v>112.5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>718</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31">
         <v>0.6</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>731.47</v>
       </c>
       <c r="I31" s="4">
         <v>135</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31">
         <v>1647</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31">
         <v>1.33</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>2251.9699999999998</v>
       </c>
       <c r="M31" s="4">
         <v>157.5</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31">
         <v>1261</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31">
         <v>1.01</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="5">
         <v>1470.03</v>
       </c>
     </row>
@@ -2504,49 +2515,49 @@
       <c r="A32" s="4">
         <v>90</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>989</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32">
         <v>0.78</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32">
         <v>1027.0899999999999</v>
       </c>
       <c r="E32" s="4">
         <v>112.5</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>732</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>701.63</v>
       </c>
       <c r="I32" s="4">
         <v>135</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32">
         <v>1650</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32">
         <v>1.32</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>2220.2199999999998</v>
       </c>
       <c r="M32" s="4">
         <v>157.5</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32">
         <v>1235</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32">
         <v>1.01</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="5">
         <v>1468.35</v>
       </c>
     </row>
@@ -2554,49 +2565,49 @@
       <c r="A33" s="4">
         <v>90</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>985</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>0.79</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33">
         <v>1050.77</v>
       </c>
       <c r="E33" s="4">
         <v>112.5</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>730</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33">
         <v>0.59</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>718.29</v>
       </c>
       <c r="I33" s="4">
         <v>135</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33">
         <v>1651</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33">
         <v>1.32</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>2226.9899999999998</v>
       </c>
       <c r="M33" s="4">
         <v>157.5</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33">
         <v>1247</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33">
         <v>0.99</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="5">
         <v>1425</v>
       </c>
     </row>
@@ -2604,49 +2615,49 @@
       <c r="A34" s="4">
         <v>90</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>982</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34">
         <v>0.79</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34">
         <v>1045.18</v>
       </c>
       <c r="E34" s="4">
         <v>112.5</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>730</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34">
         <v>0.59</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>715.9</v>
       </c>
       <c r="I34" s="4">
         <v>135</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34">
         <v>1657</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34">
         <v>1.32</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <v>2229.2600000000002</v>
       </c>
       <c r="M34" s="4">
         <v>157.5</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34">
         <v>1244</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34">
         <v>1</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="5">
         <v>1444.91</v>
       </c>
     </row>
@@ -2654,49 +2665,49 @@
       <c r="A35" s="4">
         <v>90</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>971</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>0.79</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35">
         <v>1040.99</v>
       </c>
       <c r="E35" s="4">
         <v>112.5</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>731</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35">
         <v>0.59</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>715.9</v>
       </c>
       <c r="I35" s="4">
         <v>135</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35">
         <v>1663</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35">
         <v>1.33</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="5">
         <v>2242.86</v>
       </c>
       <c r="M35" s="4">
         <v>157.5</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35">
         <v>1241</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35">
         <v>1</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="5">
         <v>1439.92</v>
       </c>
     </row>
@@ -2704,49 +2715,49 @@
       <c r="A36" s="4">
         <v>90</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>979</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36">
         <v>0.78</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36">
         <v>1025.7</v>
       </c>
       <c r="E36" s="4">
         <v>112.5</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>731</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36">
         <v>0.59</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>717.09</v>
       </c>
       <c r="I36" s="4">
         <v>135</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36">
         <v>1659</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36">
         <v>1.33</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="5">
         <v>2256.54</v>
       </c>
       <c r="M36" s="4">
         <v>157.5</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36">
         <v>1246</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36">
         <v>1</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
         <v>1434.93</v>
       </c>
     </row>
@@ -2754,49 +2765,49 @@
       <c r="A37" s="4">
         <v>90</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>970</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37">
         <v>0.79</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37">
         <v>1036.81</v>
       </c>
       <c r="E37" s="4">
         <v>112.5</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>734</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37">
         <v>0.59</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>717.09</v>
       </c>
       <c r="I37" s="4">
         <v>135</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37">
         <v>1645</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37">
         <v>1.33</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
         <v>2247.41</v>
       </c>
       <c r="M37" s="4">
         <v>157.5</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37">
         <v>1245</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37">
         <v>1</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
         <v>1443.24</v>
       </c>
     </row>
@@ -2804,49 +2815,49 @@
       <c r="A38" s="4">
         <v>90</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>979</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38">
         <v>0.78</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38">
         <v>1024.32</v>
       </c>
       <c r="E38" s="4">
         <v>112.5</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>730</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38">
         <v>0.59</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>720.68</v>
       </c>
       <c r="I38" s="4">
         <v>135</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38">
         <v>1639</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38">
         <v>1.32</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
         <v>2215.71</v>
       </c>
       <c r="M38" s="4">
         <v>157.5</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38">
         <v>1245</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38">
         <v>1</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="5">
         <v>1441.58</v>
       </c>
     </row>
@@ -2854,49 +2865,49 @@
       <c r="A39" s="4">
         <v>90</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>981</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>0.79</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39">
         <v>1036.81</v>
       </c>
       <c r="E39" s="4">
         <v>112.5</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>733</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39">
         <v>0.59</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>715.9</v>
       </c>
       <c r="I39" s="4">
         <v>135</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39">
         <v>1647</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39">
         <v>1.31</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="5">
         <v>2202.2399999999998</v>
       </c>
       <c r="M39" s="4">
         <v>157.5</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39">
         <v>1251</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39">
         <v>1</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="5">
         <v>1441.58</v>
       </c>
     </row>
@@ -2904,49 +2915,49 @@
       <c r="A40" s="4">
         <v>90</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <v>979</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40">
         <v>0.79</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40">
         <v>1039.5999999999999</v>
       </c>
       <c r="E40" s="4">
         <v>112.5</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <v>731</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40">
         <v>0.59</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>719.48</v>
       </c>
       <c r="I40" s="4">
         <v>135</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40">
         <v>1638</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40">
         <v>1.32</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="5">
         <v>2220.2199999999998</v>
       </c>
       <c r="M40" s="4">
         <v>157.5</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40">
         <v>1246</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40">
         <v>1</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="5">
         <v>1451.58</v>
       </c>
     </row>
@@ -2954,49 +2965,49 @@
       <c r="A41" s="4">
         <v>90</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>960</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41">
         <v>0.79</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41">
         <v>1036.81</v>
       </c>
       <c r="E41" s="4">
         <v>112.5</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>730</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41">
         <v>0.59</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>717.09</v>
       </c>
       <c r="I41" s="4">
         <v>135</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41">
         <v>1645</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41">
         <v>1.31</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <v>2200</v>
       </c>
       <c r="M41" s="4">
         <v>157.5</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41">
         <v>1245</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41">
         <v>1</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="5">
         <v>1443.24</v>
       </c>
     </row>
@@ -3004,49 +3015,49 @@
       <c r="A42" s="4">
         <v>90</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>996</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42">
         <v>0.77</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42">
         <v>1010.53</v>
       </c>
       <c r="E42" s="4">
         <v>112.5</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>730</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42">
         <v>0.59</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>715.9</v>
       </c>
       <c r="I42" s="4">
         <v>135</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42">
         <v>1657</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42">
         <v>1.32</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <v>2215.71</v>
       </c>
       <c r="M42" s="4">
         <v>157.5</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42">
         <v>1244</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42">
         <v>1</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="5">
         <v>1441.58</v>
       </c>
     </row>
@@ -3054,49 +3065,49 @@
       <c r="A43" s="4">
         <v>90</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>981</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43">
         <v>0.8</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43">
         <v>1060.5999999999999</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>112.5</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <v>745</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <v>0.59</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <v>715.9</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>135</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="7">
         <v>1651</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="7">
         <v>1.33</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="8">
         <v>2242.86</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <v>157.5</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="7">
         <v>1237</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="7">
         <v>1</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="8">
         <v>1439.92</v>
       </c>
     </row>
@@ -3138,49 +3149,49 @@
       <c r="A45" s="4">
         <v>180</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>2243</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45">
         <v>1.78</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>3918.75</v>
       </c>
       <c r="E45" s="4">
         <v>202.5</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45">
         <v>2003</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45">
         <v>1.61</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>3165.79</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="10">
         <v>247.5</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="11">
         <v>3369</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="11">
         <v>2.69</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="9">
         <v>14863.31</v>
       </c>
       <c r="M45" s="4">
         <v>247.5</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45">
         <v>3279</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45">
         <v>2.63</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="5">
         <v>13342.24</v>
       </c>
     </row>
@@ -3188,49 +3199,49 @@
       <c r="A46" s="4">
         <v>180</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46">
         <v>2243</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46">
         <v>1.8</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>3996.71</v>
       </c>
       <c r="E46" s="4">
         <v>202.5</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46">
         <v>1996</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46">
         <v>1.61</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>3159.61</v>
       </c>
       <c r="I46" s="4">
         <v>225</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46">
         <v>3353</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46">
         <v>2.7</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="5">
         <v>15313.64</v>
       </c>
       <c r="M46" s="4">
         <v>247.5</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46">
         <v>3278</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46">
         <v>2.63</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="5">
         <v>13260.66</v>
       </c>
     </row>
@@ -3238,49 +3249,49 @@
       <c r="A47" s="4">
         <v>180</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>2222</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47">
         <v>1.8</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>3996.71</v>
       </c>
       <c r="E47" s="4">
         <v>202.5</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47">
         <v>2005</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47">
         <v>1.6</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>3138.07</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="10">
         <v>247.5</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="11">
         <v>3348</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="11">
         <v>2.69</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="9">
         <v>14912.26</v>
       </c>
       <c r="M47" s="4">
         <v>247.5</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47">
         <v>3283</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47">
         <v>2.63</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="5">
         <v>13240.39</v>
       </c>
     </row>
@@ -3288,49 +3299,49 @@
       <c r="A48" s="4">
         <v>180</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>2221</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48">
         <v>1.78</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>3914.9</v>
       </c>
       <c r="E48" s="4">
         <v>202.5</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48">
         <v>1999</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48">
         <v>1.61</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>3165.79</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="10">
         <v>247.5</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="11">
         <v>3355</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="11">
         <v>2.69</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="9">
         <v>14790.36</v>
       </c>
       <c r="M48" s="4">
         <v>247.5</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48">
         <v>3307</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48">
         <v>2.63</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="5">
         <v>13342.24</v>
       </c>
     </row>
@@ -3338,49 +3349,49 @@
       <c r="A49" s="4">
         <v>180</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>2235</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49">
         <v>1.78</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>3911.05</v>
       </c>
       <c r="E49" s="4">
         <v>202.5</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49">
         <v>2000</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49">
         <v>1.6</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>3147.28</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="10">
         <v>247.5</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="11">
         <v>3334</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="11">
         <v>2.69</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="9">
         <v>14961.49</v>
       </c>
       <c r="M49" s="4">
         <v>247.5</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49">
         <v>3277</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49">
         <v>2.65</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="5">
         <v>13849.11</v>
       </c>
     </row>
@@ -3388,49 +3399,49 @@
       <c r="A50" s="4">
         <v>180</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50">
         <v>2223</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50">
         <v>1.79</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>3965.32</v>
       </c>
       <c r="E50" s="4">
         <v>202.5</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50">
         <v>2009</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50">
         <v>1.6</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>3150.36</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="10">
         <v>247.5</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="11">
         <v>3360</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="11">
         <v>2.67</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="9">
         <v>14457.56</v>
       </c>
       <c r="M50" s="4">
         <v>247.5</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50">
         <v>3284</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50">
         <v>2.63</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="5">
         <v>13220.17</v>
       </c>
     </row>
@@ -3438,49 +3449,49 @@
       <c r="A51" s="4">
         <v>180</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>2223</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51">
         <v>1.78</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>3918.75</v>
       </c>
       <c r="E51" s="4">
         <v>202.5</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51">
         <v>2010</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51">
         <v>1.61</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>3178.19</v>
       </c>
       <c r="I51" s="4">
         <v>225</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51">
         <v>3349</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51">
         <v>2.7</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="5">
         <v>15085.72</v>
       </c>
       <c r="M51" s="4">
         <v>247.5</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51">
         <v>3281</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51">
         <v>2.63</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="5">
         <v>13362.76</v>
       </c>
     </row>
@@ -3488,49 +3499,49 @@
       <c r="A52" s="4">
         <v>180</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52">
         <v>2221</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52">
         <v>1.78</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>3918.75</v>
       </c>
       <c r="E52" s="4">
         <v>202.5</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52">
         <v>2008</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52">
         <v>1.61</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>3181.3</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="10">
         <v>247.5</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="11">
         <v>3351</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="11">
         <v>2.69</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="9">
         <v>14814.62</v>
       </c>
       <c r="M52" s="4">
         <v>247.5</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52">
         <v>3277</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52">
         <v>2.63</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="5">
         <v>13301.35</v>
       </c>
     </row>
@@ -3538,49 +3549,49 @@
       <c r="A53" s="4">
         <v>180</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53">
         <v>2211</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53">
         <v>1.78</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>3911.05</v>
       </c>
       <c r="E53" s="4">
         <v>202.5</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53">
         <v>1999</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53">
         <v>1.61</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>3175.08</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="10">
         <v>247.5</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="11">
         <v>3351</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="11">
         <v>2.69</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="9">
         <v>14863.31</v>
       </c>
       <c r="M53" s="4">
         <v>247.5</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53">
         <v>3283</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53">
         <v>2.63</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="5">
         <v>13220.17</v>
       </c>
     </row>
@@ -3588,49 +3599,49 @@
       <c r="A54" s="4">
         <v>180</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54">
         <v>2222</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54">
         <v>1.77</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>3872.77</v>
       </c>
       <c r="E54" s="4">
         <v>202.5</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54">
         <v>2010</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54">
         <v>1.6</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>3147.28</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="10">
         <v>247.5</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="11">
         <v>3355</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K54" s="11">
         <v>2.69</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="9">
         <v>14863.31</v>
       </c>
       <c r="M54" s="4">
         <v>247.5</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54">
         <v>3289</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54">
         <v>2.63</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="5">
         <v>13342.24</v>
       </c>
     </row>
@@ -3638,49 +3649,49 @@
       <c r="A55" s="4">
         <v>180</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>2229</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55">
         <v>1.78</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>3914.9</v>
       </c>
       <c r="E55" s="4">
         <v>202.5</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55">
         <v>1972</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55">
         <v>1.61</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>3181.3</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="10">
         <v>247.5</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="11">
         <v>3351</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="11">
         <v>2.69</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L55" s="9">
         <v>14961.49</v>
       </c>
       <c r="M55" s="4">
         <v>247.5</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55">
         <v>3264</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55">
         <v>2.64</v>
       </c>
-      <c r="P55" s="6">
+      <c r="P55" s="5">
         <v>13466.13</v>
       </c>
     </row>
@@ -3688,49 +3699,49 @@
       <c r="A56" s="4">
         <v>180</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56">
         <v>2221</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56">
         <v>1.79</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>3941.96</v>
       </c>
       <c r="E56" s="4">
         <v>202.5</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56">
         <v>1995</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56">
         <v>1.58</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="5">
         <v>3065.28</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="10">
         <v>247.5</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="11">
         <v>3327</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="11">
         <v>2.69</v>
       </c>
-      <c r="L56" s="10">
+      <c r="L56" s="9">
         <v>14863.31</v>
       </c>
       <c r="M56" s="4">
         <v>247.5</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56">
         <v>3265</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56">
         <v>2.62</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56" s="5">
         <v>12961.74</v>
       </c>
     </row>
@@ -3738,49 +3749,49 @@
       <c r="A57" s="4">
         <v>180</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57">
         <v>2213</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57">
         <v>1.78</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>3911.05</v>
       </c>
       <c r="E57" s="4">
         <v>202.5</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57">
         <v>1996</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57">
         <v>1.6</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>3135</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="10">
         <v>247.5</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <v>3342</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="11">
         <v>2.67</v>
       </c>
-      <c r="L57" s="10">
+      <c r="L57" s="9">
         <v>14295.7</v>
       </c>
       <c r="M57" s="4">
         <v>247.5</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57">
         <v>3307</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57">
         <v>2.62</v>
       </c>
-      <c r="P57" s="6">
+      <c r="P57" s="5">
         <v>12981.33</v>
       </c>
     </row>
@@ -3788,49 +3799,49 @@
       <c r="A58" s="4">
         <v>180</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58">
         <v>2220</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58">
         <v>1.78</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>3880.39</v>
       </c>
       <c r="E58" s="4">
         <v>202.5</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58">
         <v>1997</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58">
         <v>1.6</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>3138.07</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="10">
         <v>247.5</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="11">
         <v>3345</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="11">
         <v>2.68</v>
       </c>
-      <c r="L58" s="10">
+      <c r="L58" s="9">
         <v>14646.22</v>
       </c>
       <c r="M58" s="4">
         <v>247.5</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N58">
         <v>3290</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58">
         <v>2.65</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58" s="5">
         <v>13849.11</v>
       </c>
     </row>
@@ -3838,49 +3849,49 @@
       <c r="A59" s="4">
         <v>180</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59">
         <v>2246</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59">
         <v>1.78</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>3907.2</v>
       </c>
       <c r="E59" s="4">
         <v>202.5</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59">
         <v>1999</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59">
         <v>1.6</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>3141.13</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="10">
         <v>247.5</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="11">
         <v>3341</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="11">
         <v>2.68</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L59" s="9">
         <v>14718</v>
       </c>
       <c r="M59" s="4">
         <v>247.5</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N59">
         <v>3275</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59">
         <v>2.64</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P59" s="5">
         <v>13486.96</v>
       </c>
     </row>
@@ -3888,49 +3899,49 @@
       <c r="A60" s="4">
         <v>180</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60">
         <v>2218</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60">
         <v>1.8</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>4008.55</v>
       </c>
       <c r="E60" s="4">
         <v>202.5</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60">
         <v>1998</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60">
         <v>1.6</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="5">
         <v>3147.28</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="10">
         <v>247.5</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="11">
         <v>3343</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="11">
         <v>2.68</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L60" s="9">
         <v>14622.41</v>
       </c>
       <c r="M60" s="4">
         <v>247.5</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60">
         <v>3281</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60">
         <v>2.63</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60" s="5">
         <v>13179.88</v>
       </c>
     </row>
@@ -3938,49 +3949,49 @@
       <c r="A61" s="4">
         <v>180</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61">
         <v>2230</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61">
         <v>1.78</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>3899.52</v>
       </c>
       <c r="E61" s="4">
         <v>202.5</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61">
         <v>2001</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61">
         <v>1.6</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>3144.21</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="10">
         <v>247.5</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="11">
         <v>3334</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="11">
         <v>2.68</v>
       </c>
-      <c r="L61" s="10">
+      <c r="L61" s="9">
         <v>14670.08</v>
       </c>
       <c r="M61" s="4">
         <v>247.5</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61">
         <v>3255</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61">
         <v>2.63</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61" s="5">
         <v>13301.35</v>
       </c>
     </row>
@@ -3988,49 +3999,49 @@
       <c r="A62" s="4">
         <v>180</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62">
         <v>2223</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62">
         <v>1.79</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>3945.84</v>
       </c>
       <c r="E62" s="4">
         <v>202.5</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62">
         <v>1998</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62">
         <v>1.61</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="5">
         <v>3153.44</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="10">
         <v>247.5</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="11">
         <v>3367</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="11">
         <v>2.67</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L62" s="9">
         <v>14457.56</v>
       </c>
       <c r="M62" s="4">
         <v>247.5</v>
       </c>
-      <c r="N62" s="5">
+      <c r="N62">
         <v>3254</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62">
         <v>2.61</v>
       </c>
-      <c r="P62" s="6">
+      <c r="P62" s="5">
         <v>12787.5</v>
       </c>
     </row>
@@ -4038,99 +4049,99 @@
       <c r="A63" s="4">
         <v>180</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63">
         <v>2238</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63">
         <v>1.78</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>3918.75</v>
       </c>
       <c r="E63" s="4">
         <v>202.5</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63">
         <v>2001</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63">
         <v>1.6</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>3144.21</v>
       </c>
       <c r="I63" s="4">
         <v>225</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63">
         <v>3335</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63">
         <v>2.7</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="5">
         <v>15262.5</v>
       </c>
       <c r="M63" s="4">
         <v>247.5</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63">
         <v>3281</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63">
         <v>2.61</v>
       </c>
-      <c r="P63" s="6">
+      <c r="P63" s="5">
         <v>12768.37</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>180</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>2222</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>1.8</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>3977.06</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <v>202.5</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="7">
         <v>2010</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="7">
         <v>1.61</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="8">
         <v>3153.44</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="12">
         <v>247.5</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="13">
         <v>3366</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64" s="13">
         <v>2.68</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L64" s="14">
         <v>14480.93</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="6">
         <v>247.5</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="7">
         <v>3282</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="7">
         <v>2.63</v>
       </c>
-      <c r="P64" s="9">
+      <c r="P64" s="8">
         <v>13301.35</v>
       </c>
     </row>
@@ -4172,49 +4183,49 @@
       <c r="A66" s="4">
         <v>315</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66">
         <v>3905</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66">
         <v>3.12</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>61049.99</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <v>0</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <v>3742</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="11">
         <v>3.01</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>35531.9</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="10">
         <v>292.5</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="11">
         <v>3813</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="11">
         <v>3.07</v>
       </c>
-      <c r="L66" s="10">
+      <c r="L66" s="9">
         <v>47887.54</v>
       </c>
       <c r="M66" s="4">
         <v>337.5</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66">
         <v>3487</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66">
         <v>2.82</v>
       </c>
-      <c r="P66" s="6">
+      <c r="P66" s="5">
         <v>19839.560000000001</v>
       </c>
     </row>
@@ -4222,49 +4233,49 @@
       <c r="A67" s="4">
         <v>315</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67">
         <v>3898</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67">
         <v>3.13</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>67823.759999999995</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <v>0</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <v>3717</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <v>3</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>34981.89</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="10">
         <v>292.5</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="11">
         <v>3831</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K67" s="11">
         <v>3.06</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L67" s="9">
         <v>44620.24</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="10">
         <v>225</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="11">
         <v>3494</v>
       </c>
-      <c r="O67" s="12">
+      <c r="O67" s="11">
         <v>2.8</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P67" s="9">
         <v>18926.150000000001</v>
       </c>
     </row>
@@ -4272,49 +4283,49 @@
       <c r="A68" s="4">
         <v>315</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68">
         <v>3917</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68">
         <v>3.13</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>65296.480000000003</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <v>0</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>3732</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <v>2.98</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>32450</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="10">
         <v>292.5</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="11">
         <v>3802</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K68" s="11">
         <v>3.07</v>
       </c>
-      <c r="L68" s="10">
+      <c r="L68" s="9">
         <v>47887.54</v>
       </c>
       <c r="M68" s="4">
         <v>337.5</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N68">
         <v>3495</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68">
         <v>2.8</v>
       </c>
-      <c r="P68" s="6">
+      <c r="P68" s="5">
         <v>19185.03</v>
       </c>
     </row>
@@ -4322,49 +4333,49 @@
       <c r="A69" s="4">
         <v>315</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69">
         <v>3931</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69">
         <v>3.14</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>72618.64</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <v>0</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <v>3732</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <v>2.99</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>33927.279999999999</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="10">
         <v>292.5</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69" s="11">
         <v>3825</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K69" s="11">
         <v>3.05</v>
       </c>
-      <c r="L69" s="10">
+      <c r="L69" s="9">
         <v>42821.15</v>
       </c>
       <c r="M69" s="4">
         <v>337.5</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69">
         <v>3507</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69">
         <v>2.8</v>
       </c>
-      <c r="P69" s="6">
+      <c r="P69" s="5">
         <v>19222.5</v>
       </c>
     </row>
@@ -4372,49 +4383,49 @@
       <c r="A70" s="4">
         <v>315</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70">
         <v>3918</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70">
         <v>3.15</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>79099.460000000006</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <v>0</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>3729</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <v>2.99</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>33927.279999999999</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="10">
         <v>292.5</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="11">
         <v>3826</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K70" s="11">
         <v>3.07</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="9">
         <v>46750.03</v>
       </c>
       <c r="M70" s="4">
         <v>337.5</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N70">
         <v>3485</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70">
         <v>2.81</v>
       </c>
-      <c r="P70" s="6">
+      <c r="P70" s="5">
         <v>19682.14</v>
       </c>
     </row>
@@ -4422,49 +4433,49 @@
       <c r="A71" s="4">
         <v>315</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71">
         <v>3904</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71">
         <v>3.14</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>73047.47</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <v>0</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="11">
         <v>3712</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <v>2.99</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>33622.14</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="10">
         <v>292.5</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="11">
         <v>3819</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K71" s="11">
         <v>3.07</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L71" s="9">
         <v>46936.05</v>
       </c>
-      <c r="M71" s="11">
+      <c r="M71" s="10">
         <v>225</v>
       </c>
-      <c r="N71" s="12">
+      <c r="N71" s="11">
         <v>3509</v>
       </c>
-      <c r="O71" s="12">
+      <c r="O71" s="11">
         <v>2.8</v>
       </c>
-      <c r="P71" s="10">
+      <c r="P71" s="9">
         <v>18853.29</v>
       </c>
     </row>
@@ -4472,49 +4483,49 @@
       <c r="A72" s="4">
         <v>315</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72">
         <v>3909</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72">
         <v>3.13</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>67451.34</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <v>0</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>3725</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="11">
         <v>2.98</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <v>31983.3</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="10">
         <v>292.5</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="11">
         <v>3829</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72" s="11">
         <v>3.06</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="9">
         <v>45661.99</v>
       </c>
       <c r="M72" s="4">
         <v>337.5</v>
       </c>
-      <c r="N72" s="5">
+      <c r="N72">
         <v>3495</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O72">
         <v>2.81</v>
       </c>
-      <c r="P72" s="6">
+      <c r="P72" s="5">
         <v>19760.59</v>
       </c>
     </row>
@@ -4522,49 +4533,49 @@
       <c r="A73" s="4">
         <v>315</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73">
         <v>3886</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73">
         <v>3.14</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>69353.23</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <v>0</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <v>3733</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <v>2.99</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="9">
         <v>33223</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="10">
         <v>292.5</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="11">
         <v>3849</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K73" s="11">
         <v>3.07</v>
       </c>
-      <c r="L73" s="10">
+      <c r="L73" s="9">
         <v>47502.63</v>
       </c>
       <c r="M73" s="4">
         <v>337.5</v>
       </c>
-      <c r="N73" s="5">
+      <c r="N73">
         <v>3525</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73">
         <v>2.8</v>
       </c>
-      <c r="P73" s="6">
+      <c r="P73" s="5">
         <v>19222.5</v>
       </c>
     </row>
@@ -4572,49 +4583,49 @@
       <c r="A74" s="4">
         <v>315</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74">
         <v>3911</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74">
         <v>3.12</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>61357.919999999998</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="10">
         <v>0</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>3735</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="11">
         <v>2.99</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <v>34030.120000000003</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="10">
         <v>292.5</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="11">
         <v>3823</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="11">
         <v>3.09</v>
       </c>
-      <c r="L74" s="10">
+      <c r="L74" s="9">
         <v>51632.98</v>
       </c>
       <c r="M74" s="4">
         <v>337.5</v>
       </c>
-      <c r="N74" s="5">
+      <c r="N74">
         <v>3511</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O74">
         <v>2.83</v>
       </c>
-      <c r="P74" s="6">
+      <c r="P74" s="5">
         <v>20407.900000000001</v>
       </c>
     </row>
@@ -4622,49 +4633,49 @@
       <c r="A75" s="4">
         <v>315</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75">
         <v>3916</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75">
         <v>3.14</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>70143.02</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="10">
         <v>0</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <v>3719</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="11">
         <v>3</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <v>34237.51</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="10">
         <v>292.5</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75" s="11">
         <v>3825</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75" s="11">
         <v>3.07</v>
       </c>
-      <c r="L75" s="10">
+      <c r="L75" s="9">
         <v>46381.98</v>
       </c>
       <c r="M75" s="4">
         <v>337.5</v>
       </c>
-      <c r="N75" s="5">
+      <c r="N75">
         <v>3523</v>
       </c>
-      <c r="O75" s="5">
+      <c r="O75">
         <v>2.82</v>
       </c>
-      <c r="P75" s="6">
+      <c r="P75" s="5">
         <v>19839.560000000001</v>
       </c>
     </row>
@@ -4672,49 +4683,49 @@
       <c r="A76" s="4">
         <v>315</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76">
         <v>3913</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76">
         <v>3.14</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>72194.47</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="10">
         <v>0</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>3747</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="11">
         <v>2.98</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <v>32640.18</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I76" s="10">
         <v>292.5</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J76" s="11">
         <v>3823</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K76" s="11">
         <v>3.07</v>
       </c>
-      <c r="L76" s="10">
+      <c r="L76" s="9">
         <v>46750.03</v>
       </c>
       <c r="M76" s="4">
         <v>337.5</v>
       </c>
-      <c r="N76" s="5">
+      <c r="N76">
         <v>3531</v>
       </c>
-      <c r="O76" s="5">
+      <c r="O76">
         <v>2.83</v>
       </c>
-      <c r="P76" s="6">
+      <c r="P76" s="5">
         <v>20325.009999999998</v>
       </c>
     </row>
@@ -4722,49 +4733,49 @@
       <c r="A77" s="4">
         <v>315</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77">
         <v>3936</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77">
         <v>3.14</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>70950.05</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="10">
         <v>0</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="11">
         <v>3738</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="11">
         <v>3.01</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="9">
         <v>35531.9</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="10">
         <v>292.5</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J77" s="11">
         <v>3843</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K77" s="11">
         <v>3.07</v>
       </c>
-      <c r="L77" s="10">
+      <c r="L77" s="9">
         <v>46381.98</v>
       </c>
       <c r="M77" s="4">
         <v>337.5</v>
       </c>
-      <c r="N77" s="5">
+      <c r="N77">
         <v>3508</v>
       </c>
-      <c r="O77" s="5">
+      <c r="O77">
         <v>2.83</v>
       </c>
-      <c r="P77" s="6">
+      <c r="P77" s="5">
         <v>20660.11</v>
       </c>
     </row>
@@ -4772,49 +4783,49 @@
       <c r="A78" s="4">
         <v>315</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78">
         <v>3932</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78">
         <v>3.16</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <v>81690.59</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="10">
         <v>0</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <v>3719</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="11">
         <v>3</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <v>34552.949999999997</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="10">
         <v>292.5</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="11">
         <v>3831</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K78" s="11">
         <v>3.08</v>
       </c>
-      <c r="L78" s="10">
+      <c r="L78" s="9">
         <v>50325.04</v>
       </c>
       <c r="M78" s="4">
         <v>337.5</v>
       </c>
-      <c r="N78" s="5">
+      <c r="N78">
         <v>3511</v>
       </c>
-      <c r="O78" s="5">
+      <c r="O78">
         <v>2.81</v>
       </c>
-      <c r="P78" s="6">
+      <c r="P78" s="5">
         <v>19721.3</v>
       </c>
     </row>
@@ -4822,49 +4833,49 @@
       <c r="A79" s="4">
         <v>315</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79">
         <v>3915</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79">
         <v>3.15</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>79604.88</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="10">
         <v>0</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="11">
         <v>3744</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="11">
         <v>2.98</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="9">
         <v>32640.18</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I79" s="10">
         <v>292.5</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J79" s="11">
         <v>3830</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K79" s="11">
         <v>3.07</v>
       </c>
-      <c r="L79" s="10">
+      <c r="L79" s="9">
         <v>47887.54</v>
       </c>
       <c r="M79" s="4">
         <v>337.5</v>
       </c>
-      <c r="N79" s="5">
+      <c r="N79">
         <v>3503</v>
       </c>
-      <c r="O79" s="5">
+      <c r="O79">
         <v>2.82</v>
       </c>
-      <c r="P79" s="6">
+      <c r="P79" s="5">
         <v>19839.560000000001</v>
       </c>
     </row>
@@ -4872,49 +4883,49 @@
       <c r="A80" s="4">
         <v>315</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80">
         <v>3913</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80">
         <v>3.14</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>71775.02</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="10">
         <v>0</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="11">
         <v>3731</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="11">
         <v>3</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="9">
         <v>35200.01</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I80" s="10">
         <v>292.5</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80" s="11">
         <v>3817</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K80" s="11">
         <v>3.07</v>
       </c>
-      <c r="L80" s="10">
+      <c r="L80" s="9">
         <v>47694.36</v>
       </c>
       <c r="M80" s="4">
         <v>337.5</v>
       </c>
-      <c r="N80" s="5">
+      <c r="N80">
         <v>3511</v>
       </c>
-      <c r="O80" s="5">
+      <c r="O80">
         <v>2.81</v>
       </c>
-      <c r="P80" s="6">
+      <c r="P80" s="5">
         <v>19526.87</v>
       </c>
     </row>
@@ -4922,49 +4933,49 @@
       <c r="A81" s="4">
         <v>315</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81">
         <v>3919</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81">
         <v>3.14</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>70950.05</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="10">
         <v>0</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="11">
         <v>3729</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="11">
         <v>2.99</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="9">
         <v>33825.019999999997</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="10">
         <v>292.5</v>
       </c>
-      <c r="J81" s="12">
+      <c r="J81" s="11">
         <v>3829</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K81" s="11">
         <v>3.06</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L81" s="9">
         <v>45309.71</v>
       </c>
       <c r="M81" s="4">
         <v>337.5</v>
       </c>
-      <c r="N81" s="5">
+      <c r="N81">
         <v>3510</v>
       </c>
-      <c r="O81" s="5">
+      <c r="O81">
         <v>2.82</v>
       </c>
-      <c r="P81" s="6">
+      <c r="P81" s="5">
         <v>19839.560000000001</v>
       </c>
     </row>
@@ -4972,49 +4983,49 @@
       <c r="A82" s="4">
         <v>315</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82">
         <v>3886</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82">
         <v>3.14</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>73481.3</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="10">
         <v>0</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <v>3735</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <v>2.99</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="9">
         <v>33622.14</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="10">
         <v>292.5</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J82" s="11">
         <v>3819</v>
       </c>
-      <c r="K82" s="12">
+      <c r="K82" s="11">
         <v>3.07</v>
       </c>
-      <c r="L82" s="10">
+      <c r="L82" s="9">
         <v>47502.63</v>
       </c>
       <c r="M82" s="4">
         <v>337.5</v>
       </c>
-      <c r="N82" s="5">
+      <c r="N82">
         <v>3489</v>
       </c>
-      <c r="O82" s="5">
+      <c r="O82">
         <v>2.82</v>
       </c>
-      <c r="P82" s="6">
+      <c r="P82" s="5">
         <v>19800</v>
       </c>
     </row>
@@ -5022,49 +5033,49 @@
       <c r="A83" s="4">
         <v>315</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83">
         <v>3901</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83">
         <v>3.12</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>61357.919999999998</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="10">
         <v>0</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="11">
         <v>3739</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="11">
         <v>3</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="9">
         <v>34237.51</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I83" s="10">
         <v>292.5</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83" s="11">
         <v>3846</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K83" s="11">
         <v>3.06</v>
       </c>
-      <c r="L83" s="10">
+      <c r="L83" s="9">
         <v>45661.99</v>
       </c>
       <c r="M83" s="4">
         <v>337.5</v>
       </c>
-      <c r="N83" s="5">
+      <c r="N83">
         <v>3523</v>
       </c>
-      <c r="O83" s="5">
+      <c r="O83">
         <v>2.8</v>
       </c>
-      <c r="P83" s="6">
+      <c r="P83" s="5">
         <v>18999.5</v>
       </c>
     </row>
@@ -5072,99 +5083,99 @@
       <c r="A84" s="4">
         <v>315</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84">
         <v>3919</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84">
         <v>3.13</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>66357.259999999995</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="10">
         <v>0</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="11">
         <v>3733</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="11">
         <v>3</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="9">
         <v>34659.29</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I84" s="10">
         <v>292.5</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J84" s="11">
         <v>3834</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K84" s="11">
         <v>3.09</v>
       </c>
-      <c r="L84" s="10">
+      <c r="L84" s="9">
         <v>50971.13</v>
       </c>
       <c r="M84" s="4">
         <v>337.5</v>
       </c>
-      <c r="N84" s="5">
+      <c r="N84">
         <v>3524</v>
       </c>
-      <c r="O84" s="5">
+      <c r="O84">
         <v>2.83</v>
       </c>
-      <c r="P84" s="6">
+      <c r="P84" s="5">
         <v>20325.009999999998</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>315</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>3913</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <v>3.14</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>73481.3</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="12">
         <v>0</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="13">
         <v>3703</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G85" s="13">
         <v>2.99</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="14">
         <v>34030.120000000003</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="12">
         <v>292.5</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J85" s="13">
         <v>3845</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K85" s="13">
         <v>3.08</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L85" s="14">
         <v>48475.9</v>
       </c>
-      <c r="M85" s="7">
+      <c r="M85" s="6">
         <v>337.5</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N85" s="7">
         <v>3527</v>
       </c>
-      <c r="O85" s="8">
+      <c r="O85" s="7">
         <v>2.83</v>
       </c>
-      <c r="P85" s="9">
+      <c r="P85" s="8">
         <v>20366.38</v>
       </c>
     </row>
